--- a/Others/Insentive/Jan'2021/Commission Summary.xlsx
+++ b/Others/Insentive/Jan'2021/Commission Summary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -174,12 +174,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,21 +731,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
@@ -755,7 +755,7 @@
     <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.75">
+    <row r="1" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>10</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="35"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -828,7 +828,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -841,7 +841,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="63.75">
+    <row r="5" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
@@ -905,7 +905,7 @@
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -918,7 +918,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -931,7 +931,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="63.75">
+    <row r="9" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -964,7 +964,7 @@
       </c>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
@@ -1032,7 +1032,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="38"/>
@@ -1045,7 +1045,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1058,7 +1058,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1071,7 +1071,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="76.5">
+    <row r="15" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -1146,7 +1146,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1159,7 +1159,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="89.25">
+    <row r="19" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>10</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="K20" s="28"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -1240,7 +1240,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1253,7 +1253,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="114.75">
+    <row r="23" spans="1:11" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -1324,7 +1324,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1337,7 +1337,7 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="76.5">
+    <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="K28" s="29"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
@@ -1416,8 +1416,8 @@
       <c r="J29" s="5"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1"/>
-    <row r="31" spans="1:11" ht="102">
+    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" ht="102" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>10</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="K32" s="28"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
@@ -1498,8 +1498,8 @@
       <c r="J33" s="5"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:14" s="7" customFormat="1"/>
-    <row r="35" spans="1:14" ht="102">
+    <row r="34" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1559,7 @@
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
@@ -1572,7 +1572,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1585,7 +1585,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:14" ht="63.75">
+    <row r="39" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1616,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
@@ -1658,7 +1658,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1671,7 +1671,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="63.75">
+    <row r="43" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
@@ -1744,7 +1744,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1757,7 +1757,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="114.75">
+    <row r="47" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>10</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="N48" s="28"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="C49" s="35"/>
@@ -1859,7 +1859,7 @@
       <c r="M49" s="5"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1875,7 +1875,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1891,7 +1891,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" ht="114.75">
+    <row r="52" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>0</v>
       </c>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="K52" s="12"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="40" t="s">
         <v>10</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="K53" s="42"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -1970,7 +1970,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1983,7 +1983,7 @@
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:14" ht="102">
+    <row r="56" spans="1:14" ht="102" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="K57" s="32"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -2064,7 +2064,7 @@
       <c r="J58" s="5"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2077,7 +2077,7 @@
       <c r="J59" s="7"/>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:14" ht="114.75">
+    <row r="60" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>0</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="12"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
@@ -2150,7 +2150,7 @@
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
